--- a/public/levantamentos.xlsx
+++ b/public/levantamentos.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t>Pavimento</t>
   </si>
@@ -55,6 +55,12 @@
   </si>
   <si>
     <t>Perda</t>
+  </si>
+  <si>
+    <t>Planta</t>
+  </si>
+  <si>
+    <t>Planta_opcao</t>
   </si>
 </sst>
 </file>
@@ -417,22 +423,30 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M1"/>
+  <dimension ref="A1:O1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:M1"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="O2" sqref="O2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="12.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="6.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="5.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="5.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.42578125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="7.28515625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="6.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:15">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -471,6 +485,12 @@
       </c>
       <c r="M1" s="1" t="s">
         <v>12</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>14</v>
       </c>
     </row>
   </sheetData>
